--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,14 +747,989 @@
           <t>1885년</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>20230401</t>
-        </is>
+      <c r="D13" t="n">
+        <v>20230401</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>23시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>이노우에 가오루는 청일전쟁 시기 주한공사를 역임하였다</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>고무라 쥬타로</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>이노우에 가오루</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>윤봉길이 상하이 홍커우 공원에서 일왕 탄생 축하 행사 겸 전승 축하식장에 폭탄을 던졌다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>이봉창</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>윤봉길</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>이병도, 손진태 등이 진단학회(1934)를 결성하고 진단학보를 발행하였다</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>주시경, 지석영</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>이병도, 손진태</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>박은식은 우리 민족의 항일 독립 운동사를 내용으로 한 『한국독립운동지혈사』와 나라는 형체이며 역사는 정신임을 주장한 『한국통사』를 저술하였다</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>신채호</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>박은식</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>웅기 굴포리 유적</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>남한 최초 발견 구석기 유적</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>북한 최초 발견 구석기 유적</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>양세봉이 이끄는 군대로, 영릉가 전투와 흥경성 전투에서 일본군을 격퇴하였다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>조선 의용군</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>조선 혁명군</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>만적의 난</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>최우 집권기</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>최충헌 집권기: 1198, 왕후 장상의 씨가 따로 있냐…</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>13시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>『해동고승전』은 무신 정권기인 고종 대에 교종 승려인 각훈이 왕명에 따라 편찬하였다</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>요세</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>각훈</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>13시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>개인의 소승적 해탈 중시</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>신라</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>백제</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>13시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>이정의 풍죽도</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>조선후기</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>조선전기: 16세기,사림의 문화가 반영됨</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>13시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>덕천 승리산</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>남한 최초 인골화석 발견</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>한반도 최초의 인류 화석 발굴</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>13시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>전하께서는 … 사학의 무리를 잡아 베게 하시고, 밖으로는 장병으로 하여금 바다를 건너오는 적을 정벌케 하소서</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>민영익</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>유인석: 격고팔도열읍</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>13시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>백제 신라의 대야성 함락</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">433년 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>642년 : 의자왕</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>13시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>무위사 극락전</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>조선후기</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>조선전기: 15세기 세종</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>19시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>헌정연구회의 활동을 계승하여 월보를 간행하고 지회를 설치하였다</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>독립신문</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>대한자강회</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>19시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>고구려 동예 통합</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동천왕 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>광개토대왕 : 410년</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>19시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>그는 신채호의 고대사 연구를 계승 발전시켜 고대 국가의 사회 발전 단계를 해명하는 많은 논문을 발표하여 해방 후 『조선상고사감』이라는 단행본을 엮어냈고, 우리나라의 전통 철학을 정리하여 『불함철학대전』과 『조선철학』을 저술하였다. 또한 ‘신민족주의와 신민주주의’라는 독창적인 이론을 제시하고, 이에 의거하여 극좌와 극우를 배격하고 만민공생의 통합된 민족 국가를 건설하려 하였다</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>정인보</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>안재홍</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>『조선문전』 - 유길준(1897 ~ 1902)이 라틴문법의 모형에 따라 저술한 최초의 국어문법서이다</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>문일평</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>유길준</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>아관파천 이후 러시아의 영향력이 강화되고 열강의 이권 침탈이 가속화되었다. 이러한 가운데 서재필 등은 독립협회를 만들었다. 독립협회는 고종에게 자주독립을 굳건히 하고 내정 개혁을 단행하라는 내용이 담긴 상소문을 제출하였으며, 만민공동회를 개최하여 외국의 간섭과 일부 관리의 부정부패를 비판하였다</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>독립신문</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>독립협회</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>제왕연대력</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>강수</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>최치원</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>대한 민국 임시 정부에서는 만주 지역의 독립군과 각처에 산재해 있던 무장투쟁 세력을 모아 충칭에서 이 단체를 창설하였다</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>한국 광복군</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>계급투쟁은 민족의 내부 분열을 초래할 것이며, 민족의 내쟁은 필연적으로 민족의 약화에 따르는 다른 민족으로부터의 수모를 초래할 것이다. 계급투쟁의 길은 우리가 반드시 취해야 할 필요는 없고, 민족 균등이 실현되는 날 그것은 자연 해소되는 문제다. … (중략) … 이 세계적 기운과 민족적 요청에서 민족사관은 출발하는 것이며, 민족사는 그 향로와 방법을 명백하게 과학적으로 지시하여야 할 것이다</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>신채호</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>손진태</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>일단 강화를 맺고 나면 저들은 물화를 교역하는 데 욕심을 낼 것입니다. … 저들이 비록 왜인이라고 하나 실은 양적입니다</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>유길준</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>이만손: 영남만인소</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>재판소를 설치하여 사법권과 행정권을 분리시켰다</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>중국 화엄종의 방계(傍系)인 이통현의 화엄사상에서 많은 영향을 받았다</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>보우</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>과부의 재혼은 귀천을 막론하고 그 자유에 맡긴다</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>폐정 개혁 12개조</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁: 1894년</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>역사를 ‘아(我)와 비아(非我)의 투쟁’으로 해석했다</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>박은식</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>신채호</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>만주에서 중국 의용군과 한중 연합 작전을 수행한 것은 양세봉의 조선 혁명군이다</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>조선 의용대</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>조선 혁명군</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>나성(개경의 외성) 축조(1029)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>혜종</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>현종</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>웅기 굴포리 서포항 유적</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>구석기</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>신석기</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>『임원경제지』는 서유구가 홍만선의 『산림경제』를 토대로 저술한 백과사전이다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>홍만선</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>서유구</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>보안회는 1904년 일제의 황무지 개간 요구 철회를 주장하며 가두집회를 열고 반대 운동을 벌였다</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>독립협회</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>보안회</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>고려 목종</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경정 전시과 </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>개정 전시과 : 전·현직 관리 대상, 인품을 배제하고 관품만을 기준으로 토지 분급</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>상리국을 폐지하여 상공업을 활성화하고자 하였다</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>광무개혁</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>홍범14조: 2차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>고려 목종</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경정 전시과 </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>개정 전시과 : 전·현직 관리 대상, 인품을 배제하고 관품만을 기준으로 토지 분급</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1932년 한인 애국단의 유진만과 이덕주는 김구의 지시로 조선 총독 우가키 가즈시게를 비롯한 일본 요인 암살을 목적으로 국내로 파견되어 활동을 전개하다가 4월 7일 일본 경찰에 체포되었다</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>나석주</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>이덕주</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>서재필을 중심으로 민중 계몽을 위한 독립신문이 창간되었다</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>황국협회</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>독립신문: 1896년</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>법주사 팔상전</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>조선전기</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>조선후기: 17세기 인조</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>웅기 굴포리 유적</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>남한 최초 인골화석 발견</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>북한 최초 발견 구석기 유적</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20230404</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21시 00분</t>
         </is>
       </c>
     </row>
